--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/97.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/97.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2202808785090887</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.519153274453227</v>
+        <v>-2.511528046152523</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1217306753053305</v>
+        <v>0.1191629092562212</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2869076392263938</v>
+        <v>-0.2822771214485226</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2236566801110051</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.627230608452306</v>
+        <v>-2.619599280944835</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06462258250005633</v>
+        <v>0.0623731950442095</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.309554603874726</v>
+        <v>-0.3040903245317401</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.246973166524746</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.74221468419488</v>
+        <v>-2.736605853651505</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06605711593176776</v>
+        <v>0.0649940241921959</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.320792392343809</v>
+        <v>-0.3154622955497077</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2927309956416933</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.900687933951621</v>
+        <v>-2.89538406374662</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0271673537409581</v>
+        <v>0.02604936914047891</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3283578484181919</v>
+        <v>-0.3230125036071719</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3517045135897572</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.977472372749126</v>
+        <v>-2.973645425462871</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07561457293640983</v>
+        <v>0.0747637335923463</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3188260080819732</v>
+        <v>-0.3134587061265903</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.40468558393825</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.877316383539313</v>
+        <v>-2.87068105649697</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1294900861549193</v>
+        <v>0.1302646854143893</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3251350275622552</v>
+        <v>-0.3187644060936217</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4336635035539687</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.696430988594788</v>
+        <v>-2.688088493578228</v>
       </c>
       <c r="F8" t="n">
-        <v>0.170476145711712</v>
+        <v>0.1705414072241241</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3661216970397246</v>
+        <v>-0.358478171118718</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.4295092388360354</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.485596658659903</v>
+        <v>-2.47841179308781</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1856314546875478</v>
+        <v>0.1878308286479013</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3708498021258756</v>
+        <v>-0.3643767139835484</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3922006783999729</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.075634816259635</v>
+        <v>-2.067918709778096</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2197388288519759</v>
+        <v>0.2238789704057417</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.333567180918297</v>
+        <v>-0.3259700089687232</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.3225835107137261</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.709903201495783</v>
+        <v>-1.701378950117552</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2098721420642226</v>
+        <v>0.2129241851306699</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2884818444930806</v>
+        <v>-0.2831572369850701</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2245260426697864</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.28960625322802</v>
+        <v>-1.279208935451495</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1397934761472242</v>
+        <v>0.1415701750785913</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2440289958096519</v>
+        <v>-0.2374845469481452</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1063930070997083</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7882752438475092</v>
+        <v>-0.7773942589743238</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07113470556569534</v>
+        <v>0.07098710476192231</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2063950602922665</v>
+        <v>-0.2002092447886877</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.0151660800736615</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3820668532919491</v>
+        <v>-0.3713481073187787</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08437859914678723</v>
+        <v>-0.08485250751262047</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1601905194252173</v>
+        <v>-0.1522627704688461</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1332311379217107</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05966453731877137</v>
+        <v>0.0709779559517711</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2930001368664302</v>
+        <v>-0.296358360112605</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.09401046647399255</v>
+        <v>-0.08516783650249922</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2518419960938901</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5381692653719857</v>
+        <v>0.5465575044393018</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4136265887896006</v>
+        <v>-0.4151812765946314</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02258875522679498</v>
+        <v>-0.01518736781445729</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3759249216348546</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9417269406663987</v>
+        <v>0.9480914629282647</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5643001729320873</v>
+        <v>-0.5699334003025324</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0253766266340258</v>
+        <v>0.03201866280381215</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5037868815605158</v>
       </c>
       <c r="E18" t="n">
-        <v>1.377770211045767</v>
+        <v>1.383205824116946</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7790044495609387</v>
+        <v>-0.7852793134833227</v>
       </c>
       <c r="G18" t="n">
-        <v>0.090086160833611</v>
+        <v>0.09623843069996867</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.6301961906945139</v>
       </c>
       <c r="E19" t="n">
-        <v>1.708925422644771</v>
+        <v>1.714224413484359</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9504165565542129</v>
+        <v>-0.9591487908832148</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1978146202055902</v>
+        <v>0.2037967222031352</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7495824210587732</v>
       </c>
       <c r="E20" t="n">
-        <v>2.034546214022964</v>
+        <v>2.035967329199787</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.1132848947076</v>
+        <v>-1.123372982701013</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2873357275352864</v>
+        <v>0.2947426042337148</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8579286646552929</v>
       </c>
       <c r="E21" t="n">
-        <v>2.269281505517575</v>
+        <v>2.267243150615883</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.363336514236709</v>
+        <v>-1.37528547021488</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3569136485766746</v>
+        <v>0.3636239958622568</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9514248959003007</v>
       </c>
       <c r="E22" t="n">
-        <v>2.524794354786286</v>
+        <v>2.52287676417859</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.637712990195883</v>
+        <v>-1.648565918717938</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4735054752231567</v>
+        <v>0.4797766796214802</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.027033721890609</v>
       </c>
       <c r="E23" t="n">
-        <v>2.708463427699489</v>
+        <v>2.705865165616542</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.923010095872231</v>
+        <v>-1.932262592538499</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6018510832312505</v>
+        <v>0.6083241713735776</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.083566548447513</v>
       </c>
       <c r="E24" t="n">
-        <v>2.832740864793673</v>
+        <v>2.829366783609903</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.209375172653565</v>
+        <v>-2.217138852947892</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7131994218197294</v>
+        <v>0.7176805090317975</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.119431444452379</v>
       </c>
       <c r="E25" t="n">
-        <v>2.962123337952239</v>
+        <v>2.956416920100584</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.458536917915298</v>
+        <v>-2.465799853334014</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8152184137366701</v>
+        <v>0.8194207671994642</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.1342645055642</v>
       </c>
       <c r="E26" t="n">
-        <v>3.021917521417911</v>
+        <v>3.015743904327867</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.689118649601255</v>
+        <v>-2.693777223730257</v>
       </c>
       <c r="G26" t="n">
-        <v>0.918517629154105</v>
+        <v>0.9218538952559168</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.128443399952311</v>
       </c>
       <c r="E27" t="n">
-        <v>3.014831462995452</v>
+        <v>3.008661505429469</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.902265188821692</v>
+        <v>-2.904890287414416</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9723114130019301</v>
+        <v>0.9752914854285212</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.104393679618081</v>
       </c>
       <c r="E28" t="n">
-        <v>3.023511854066931</v>
+        <v>3.015440163830847</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.124185132016811</v>
+        <v>-3.125829783121663</v>
       </c>
       <c r="G28" t="n">
-        <v>1.021263036597053</v>
+        <v>1.022827483132911</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.064469427732933</v>
       </c>
       <c r="E29" t="n">
-        <v>3.017085729816713</v>
+        <v>3.00927264594757</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.277050161150854</v>
+        <v>-3.279069913471905</v>
       </c>
       <c r="G29" t="n">
-        <v>1.098142927980468</v>
+        <v>1.10012699994193</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.011205901768107</v>
       </c>
       <c r="E30" t="n">
-        <v>2.913933505282375</v>
+        <v>2.908635734284141</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.340128462500476</v>
+        <v>-3.340466968476071</v>
       </c>
       <c r="G30" t="n">
-        <v>1.093613047114261</v>
+        <v>1.094624905516986</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9469069638085503</v>
       </c>
       <c r="E31" t="n">
-        <v>2.853456210658744</v>
+        <v>2.847758331696564</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.416061147072902</v>
+        <v>-3.416086458780987</v>
       </c>
       <c r="G31" t="n">
-        <v>1.139774283613261</v>
+        <v>1.139011272846649</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8744848702011402</v>
       </c>
       <c r="E32" t="n">
-        <v>2.778396932495421</v>
+        <v>2.772068395553483</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.457874564027704</v>
+        <v>-3.455957583340685</v>
       </c>
       <c r="G32" t="n">
-        <v>1.092539586723184</v>
+        <v>1.093277590742049</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.7975210712542625</v>
       </c>
       <c r="E33" t="n">
-        <v>2.601296705270795</v>
+        <v>2.594744937361167</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.425107795510768</v>
+        <v>-3.424036164881722</v>
       </c>
       <c r="G33" t="n">
-        <v>1.061994759231641</v>
+        <v>1.062371690209872</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7185740250206677</v>
       </c>
       <c r="E34" t="n">
-        <v>2.548228727028299</v>
+        <v>2.540598619362181</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.25376765915735</v>
+        <v>-3.250902861738664</v>
       </c>
       <c r="G34" t="n">
-        <v>1.009822754463289</v>
+        <v>1.010275925526113</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6408921976101126</v>
       </c>
       <c r="E35" t="n">
-        <v>2.427814527500638</v>
+        <v>2.418880409427632</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.090085991781519</v>
+        <v>-3.087076033241768</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9787570547138036</v>
+        <v>0.9785667594626583</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5662404365296579</v>
       </c>
       <c r="E36" t="n">
-        <v>2.302559997482303</v>
+        <v>2.294860358859035</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.000968346979492</v>
+        <v>-3.001577047814886</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8864540991774595</v>
+        <v>0.8879136393569176</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4971346829889675</v>
       </c>
       <c r="E37" t="n">
-        <v>2.173704495788447</v>
+        <v>2.164244626092085</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.812753230302147</v>
+        <v>-2.813381448599197</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7791586834859714</v>
+        <v>0.7802284843529875</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4341199382685095</v>
       </c>
       <c r="E38" t="n">
-        <v>2.039348119511001</v>
+        <v>2.031774734467821</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.637670620676203</v>
+        <v>-2.640876363753191</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7160770275726268</v>
+        <v>0.7163338041775377</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3779104044324128</v>
       </c>
       <c r="E39" t="n">
-        <v>1.877871010421277</v>
+        <v>1.87202797033803</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.436660283081699</v>
+        <v>-2.439599490822948</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6435775864896154</v>
+        <v>0.6453713631999314</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3274985304939015</v>
       </c>
       <c r="E40" t="n">
-        <v>1.781511472463881</v>
+        <v>1.776178326066396</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.2910679480972</v>
+        <v>-2.296543206012368</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5574817936805363</v>
+        <v>0.560334392685687</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2817315082028056</v>
       </c>
       <c r="E41" t="n">
-        <v>1.676730759722625</v>
+        <v>1.671171942674743</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.204184137773763</v>
+        <v>-2.210429115582986</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4820577829525179</v>
+        <v>0.4850890887159558</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2388733288065046</v>
       </c>
       <c r="E42" t="n">
-        <v>1.478293067542644</v>
+        <v>1.473181932271496</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.123707544159564</v>
+        <v>-2.130637462888775</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4506029538112671</v>
+        <v>0.4540977992890334</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1980273920351235</v>
       </c>
       <c r="E43" t="n">
-        <v>1.337672805914996</v>
+        <v>1.334082812811657</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.021211594273406</v>
+        <v>-2.028548330094008</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4204137100742685</v>
+        <v>0.4246941333836863</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1584337082536352</v>
       </c>
       <c r="E44" t="n">
-        <v>1.166191167964572</v>
+        <v>1.162787200667642</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.964157784408362</v>
+        <v>-1.972086753206087</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4014488365514643</v>
+        <v>0.4045081986660326</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1196108683692713</v>
       </c>
       <c r="E45" t="n">
-        <v>1.085061959226253</v>
+        <v>1.083315756328723</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.917761118528138</v>
+        <v>-1.925462586913435</v>
       </c>
       <c r="G45" t="n">
-        <v>0.354760628587754</v>
+        <v>0.3605884206540817</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.08116422210287222</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9629003369597076</v>
+        <v>0.9612401328775994</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.894343824065073</v>
+        <v>-1.901995888875554</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3141222238167076</v>
+        <v>0.3189198598600079</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.0426558588457665</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8220428161888041</v>
+        <v>0.823568227801351</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.88121162197401</v>
+        <v>-1.889029585208567</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2790334872833919</v>
+        <v>0.2841220554895009</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.00391324121839514</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7316373238778232</v>
+        <v>0.7344173423224408</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.934474164912388</v>
+        <v>-1.942675768252619</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2573666651625939</v>
+        <v>0.2621502730303289</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.03523715550292827</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7098399787322012</v>
+        <v>0.7116593721109405</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.883597021740772</v>
+        <v>-1.89342894304995</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2443973118922232</v>
+        <v>0.2485777082106543</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.07444133477728418</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6596111812399683</v>
+        <v>0.6605913237675024</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.880220500874294</v>
+        <v>-1.889790156292471</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1954383692489798</v>
+        <v>0.2001335386185863</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1140487149298747</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5878747509235688</v>
+        <v>0.5889921256033712</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.943091124233484</v>
+        <v>-1.950978008504513</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1765826715273136</v>
+        <v>0.1795584745091674</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.153090758072176</v>
       </c>
       <c r="E52" t="n">
-        <v>0.475751203154943</v>
+        <v>0.4773565143761439</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.898701097379761</v>
+        <v>-1.906014656214647</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1147617216528072</v>
+        <v>0.1188506298697262</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1913819728183031</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4317911703783267</v>
+        <v>0.4355104666651364</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.906069549075554</v>
+        <v>-1.914350442103762</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1208420208793086</v>
+        <v>0.124939467985702</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.227655734240395</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3196694523717312</v>
+        <v>0.32373213399955</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.859899163766403</v>
+        <v>-1.867437173410332</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08763001026834658</v>
+        <v>0.09093882993970479</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2615217616246078</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2960008705898461</v>
+        <v>0.3001397923022584</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.874159109188772</v>
+        <v>-1.881786167251507</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1031592006190289</v>
+        <v>0.1064649706870033</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2920621159983917</v>
       </c>
       <c r="E56" t="n">
-        <v>0.25983562406207</v>
+        <v>0.2643551362767731</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.827764273070578</v>
+        <v>-1.835207745009611</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07359634541705051</v>
+        <v>0.07564018960483325</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3194245890466211</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2493779241385478</v>
+        <v>0.2543560967021655</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.833571937754573</v>
+        <v>-1.839851071121694</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05062002360327442</v>
+        <v>0.05206797528987431</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.343360215740483</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1891372787374956</v>
+        <v>0.1939629711319263</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.834143433428686</v>
+        <v>-1.839299702829914</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02465753015613984</v>
+        <v>0.02547421394230549</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3636509478423195</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1599403759415661</v>
+        <v>0.164900860805558</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.870374551389551</v>
+        <v>-1.875754051758469</v>
       </c>
       <c r="G59" t="n">
-        <v>0.001428091261513302</v>
+        <v>0.00316514534889177</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3807366118982453</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1554873450806285</v>
+        <v>0.1596183378242431</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.807157493085968</v>
+        <v>-1.812128956522141</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.002814516965946189</v>
+        <v>-0.002329020107254735</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3945848447620041</v>
       </c>
       <c r="E61" t="n">
-        <v>0.124939467985702</v>
+        <v>0.1282928118664629</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.833384082186134</v>
+        <v>-1.837909083686928</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.02248384887039431</v>
+        <v>-0.02208557066847783</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4057215954558979</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1443007899483924</v>
+        <v>0.1482878414122944</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.779748267793587</v>
+        <v>-1.785213766977926</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.04445868093295009</v>
+        <v>-0.04508019010255636</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4147321081514834</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09218733756500806</v>
+        <v>0.09742960578165762</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.816633830640602</v>
+        <v>-1.823260008872793</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.07390626112702307</v>
+        <v>-0.07324632695478167</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4220959551419802</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1001827877164984</v>
+        <v>0.1032134835592595</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.783000364842008</v>
+        <v>-1.789070295417004</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.04963629755786435</v>
+        <v>-0.04925875665895731</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4279456861724929</v>
       </c>
       <c r="E65" t="n">
-        <v>0.09659401445451278</v>
+        <v>0.09952102378222671</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.796086212961637</v>
+        <v>-1.803066145186342</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.09064248449698979</v>
+        <v>-0.0901210023183702</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4323029836303013</v>
       </c>
       <c r="E66" t="n">
-        <v>0.09409394960052249</v>
+        <v>0.09708622044064846</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.816441705627427</v>
+        <v>-1.822360985795267</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.08215421843868706</v>
+        <v>-0.08163090649803723</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4346723910305635</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1039289205130849</v>
+        <v>0.1057672214328036</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.777561092246768</v>
+        <v>-1.782876550944628</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.09949609304066459</v>
+        <v>-0.09924724540455139</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4345231375481837</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0133947349393102</v>
+        <v>0.01500858504998556</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.811766663640153</v>
+        <v>-1.81606782425258</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.1408163891283153</v>
+        <v>-0.1401418168598319</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4315821183987165</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.013631460168073</v>
+        <v>-0.01093012149075585</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.831797068585236</v>
+        <v>-1.835935380376972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1457384489896721</v>
+        <v>-0.1439013679113069</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4253581531447342</v>
       </c>
       <c r="E70" t="n">
-        <v>0.05970784168682048</v>
+        <v>0.06167300610730272</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.775309875028891</v>
+        <v>-1.779603716593198</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.138231545300257</v>
+        <v>-0.1371245392719593</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4158619644466921</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0674282176130974</v>
+        <v>0.06983130507948475</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.75928542908869</v>
+        <v>-1.762502150737859</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.1808717097323905</v>
+        <v>-0.1795853870251288</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4027708011204645</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1215056145756105</v>
+        <v>0.1239922611747123</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.715976181674163</v>
+        <v>-1.717990749669462</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1757691133507162</v>
+        <v>-0.1749243732134202</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3862726234354606</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1562253490994936</v>
+        <v>0.1583490928959304</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.673025567617565</v>
+        <v>-1.675889145194897</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1560448885853608</v>
+        <v>-0.1549067766025489</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3661609579401719</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2544359963108194</v>
+        <v>0.2557833110857559</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.596443927445079</v>
+        <v>-1.59870002402837</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1850081917620958</v>
+        <v>-0.1830198503558972</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3427213871205876</v>
       </c>
       <c r="E75" t="n">
-        <v>0.349880043332416</v>
+        <v>0.352400235568739</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.536379549119607</v>
+        <v>-1.539482825522901</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1615213663418816</v>
+        <v>-0.1610712448824415</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3156101923743832</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4603775425768314</v>
+        <v>0.4606379787058029</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.533669061632139</v>
+        <v>-1.535993469331226</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1764991884007837</v>
+        <v>-0.1758886578033589</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2849505565414057</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5798908892649367</v>
+        <v>0.5824458469798343</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.452351997325381</v>
+        <v>-1.456040797578353</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2003001229695231</v>
+        <v>-0.1991065082051272</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2506325052335059</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7598528643048651</v>
+        <v>0.7612196965414575</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.411450106821979</v>
+        <v>-1.413722061342866</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2027751810757668</v>
+        <v>-0.2004184475808123</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2129595212696518</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9604893205245225</v>
+        <v>0.9628161679063164</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.360097835443177</v>
+        <v>-1.360371689827036</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1836486785736244</v>
+        <v>-0.1810052823605983</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1720941265798586</v>
       </c>
       <c r="E80" t="n">
-        <v>1.13774507752172</v>
+        <v>1.139380274856082</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.33682143265644</v>
+        <v>-1.336204192931571</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1922705172601349</v>
+        <v>-0.188784210671843</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1291929132292905</v>
       </c>
       <c r="E81" t="n">
-        <v>1.303087863860674</v>
+        <v>1.307062106990365</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.285807667253233</v>
+        <v>-1.285153222367082</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1237562978789953</v>
+        <v>-0.1217972326652806</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.0849592840889512</v>
       </c>
       <c r="E82" t="n">
-        <v>1.535573157978762</v>
+        <v>1.539535202694917</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.309369512916687</v>
+        <v>-1.307227471499948</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.0904308420221582</v>
+        <v>-0.08881577207012935</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.04126965231178428</v>
       </c>
       <c r="E83" t="n">
-        <v>1.742758332504663</v>
+        <v>1.743418266676904</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.229675447530755</v>
+        <v>-1.226247693327431</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.07486322666884078</v>
+        <v>-0.07299808923934521</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.710953812337595e-05</v>
       </c>
       <c r="E84" t="n">
-        <v>1.958929468361093</v>
+        <v>1.959385689027301</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.141123504156412</v>
+        <v>-1.138273344833968</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09420869069393568</v>
+        <v>-0.0921313008689318</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.03735771161897459</v>
       </c>
       <c r="E85" t="n">
-        <v>2.07255891028061</v>
+        <v>2.071742836415121</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.067345669334937</v>
+        <v>-1.063623323444743</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.06315213975460132</v>
+        <v>-0.06139251860218317</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.06964383646644005</v>
       </c>
       <c r="E86" t="n">
-        <v>2.180691747061273</v>
+        <v>2.180111102577009</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.009426382029587</v>
+        <v>-1.003506491941071</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06792537897083162</v>
+        <v>-0.0660620713033663</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.09588550617553225</v>
       </c>
       <c r="E87" t="n">
-        <v>2.311763700494431</v>
+        <v>2.310213282134137</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8668696222532639</v>
+        <v>-0.8617164024554196</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.06608646813043623</v>
+        <v>-0.06443663269983273</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1145030218573378</v>
       </c>
       <c r="E88" t="n">
-        <v>2.404320383032302</v>
+        <v>2.400264410531928</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.789757351092007</v>
+        <v>-0.7849340983802834</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.05047737817109992</v>
+        <v>-0.04912701379277973</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1245344650144922</v>
       </c>
       <c r="E89" t="n">
-        <v>2.438761383806912</v>
+        <v>2.433738077113214</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.738033028100388</v>
+        <v>-0.7324565233528805</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.04891842092133189</v>
+        <v>-0.04655009893351918</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1253975874790419</v>
       </c>
       <c r="E90" t="n">
-        <v>2.446831854201642</v>
+        <v>2.442181818962115</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.656429910996235</v>
+        <v>-0.6504008451065805</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.05381730379697229</v>
+        <v>-0.05228274337427417</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1170279617569581</v>
       </c>
       <c r="E91" t="n">
-        <v>2.39099117656265</v>
+        <v>2.386139867499796</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5131735722036814</v>
+        <v>-0.5072250158433576</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.04491429167848089</v>
+        <v>-0.04321200306967706</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.0996376383619352</v>
       </c>
       <c r="E92" t="n">
-        <v>2.337832930059996</v>
+        <v>2.331039633562376</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4339046215294433</v>
+        <v>-0.4282616354281703</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04168171209171618</v>
+        <v>-0.03937255240954803</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07474714350045347</v>
       </c>
       <c r="E93" t="n">
-        <v>2.240230983684065</v>
+        <v>2.235393092876099</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3469573794556239</v>
+        <v>-0.341280237796453</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04006847190171757</v>
+        <v>-0.03779773722218455</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.04449116410498173</v>
       </c>
       <c r="E94" t="n">
-        <v>2.13413345220171</v>
+        <v>2.128546578802698</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2629505649644069</v>
+        <v>-0.2574978741142793</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08701711599439933</v>
+        <v>-0.08622909848004084</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01224172159348932</v>
       </c>
       <c r="E95" t="n">
-        <v>1.979642374543457</v>
+        <v>1.976049941757411</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1875442419360142</v>
+        <v>-0.182276966971618</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.09279672432726392</v>
+        <v>-0.09234233342308662</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.01886012090780106</v>
       </c>
       <c r="E96" t="n">
-        <v>1.805955263425913</v>
+        <v>1.804392036731408</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.07853738882557108</v>
+        <v>-0.07334696386644511</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08048791514981136</v>
+        <v>-0.08091241994082801</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.04642749902245854</v>
       </c>
       <c r="E97" t="n">
-        <v>1.67107130576308</v>
+        <v>1.670606546207398</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.01116799055468759</v>
+        <v>-0.005570138583493915</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.08727023307524977</v>
+        <v>-0.08661273858571536</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.06959845312114833</v>
       </c>
       <c r="E98" t="n">
-        <v>1.506223775013645</v>
+        <v>1.503667597457394</v>
       </c>
       <c r="F98" t="n">
-        <v>0.02892148560728551</v>
+        <v>0.03422230620890288</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1100318628108106</v>
+        <v>-0.109256043709987</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08754922379937435</v>
       </c>
       <c r="E99" t="n">
-        <v>1.415212021549977</v>
+        <v>1.413876295267898</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0736951525666837</v>
+        <v>0.07898682435814984</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1008775633734989</v>
+        <v>-0.1005744327971552</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1010599198421297</v>
       </c>
       <c r="E100" t="n">
-        <v>1.270872463635518</v>
+        <v>1.271314046205484</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1170470944285822</v>
+        <v>0.1213354467067978</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1331795723347528</v>
+        <v>-0.1327690957193014</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1114950683864464</v>
       </c>
       <c r="E101" t="n">
-        <v>1.188647227441083</v>
+        <v>1.190706929566461</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1483244366528993</v>
+        <v>0.1515551864776338</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1748816787660478</v>
+        <v>-0.1750622152863652</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1234005847742487</v>
       </c>
       <c r="E102" t="n">
-        <v>1.111333072535822</v>
+        <v>1.112016793614456</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1668635855433333</v>
+        <v>0.1699644222639204</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1814267375482312</v>
+        <v>-0.1806070041586818</v>
       </c>
     </row>
   </sheetData>
